--- a/public/template/data_input.xlsx
+++ b/public/template/data_input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rifaa Zalfaa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.2\htdocs\SIG_KTP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F854F8-8DC3-4988-B1EE-E817D1A263F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A420D52-935F-407B-BF56-F5507380CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3FF2CEC-B335-42B4-A3E0-6EA07740F475}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id_kecamatan</t>
   </si>
@@ -33,148 +33,76 @@
     <t>ibu_rumah_tangga</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 06</t>
-  </si>
-  <si>
     <t>CIMENYAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 07</t>
-  </si>
-  <si>
-    <t>CILENGKRANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 08</t>
-  </si>
-  <si>
     <t>BOJONGSOANG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 10</t>
-  </si>
-  <si>
     <t>MARGAASIH</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 11</t>
-  </si>
-  <si>
     <t>KATAPANG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 12</t>
-  </si>
-  <si>
     <t>DAYEUHKOLOT</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 14</t>
-  </si>
-  <si>
     <t>PAMEUNGPEUK</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 25</t>
-  </si>
-  <si>
     <t>CICALENGKA</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 26</t>
-  </si>
-  <si>
-    <t>NAGREG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 29</t>
-  </si>
-  <si>
-    <t>CIPARAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 30</t>
-  </si>
-  <si>
     <t>PACET</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 31</t>
-  </si>
-  <si>
     <t>KERTASARI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 33</t>
-  </si>
-  <si>
-    <t>MAJALAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 34</t>
-  </si>
-  <si>
     <t>SOLOKANJERUK</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 35</t>
-  </si>
-  <si>
-    <t>PASEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 36</t>
-  </si>
-  <si>
-    <t>IBUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 37</t>
-  </si>
-  <si>
     <t>SOREANG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 38</t>
-  </si>
-  <si>
     <t>PASIRJAMBU</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 39</t>
-  </si>
-  <si>
-    <t>CIWIDEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32. 04. 40</t>
-  </si>
-  <si>
     <t>RANCABALI</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 46</t>
-  </si>
-  <si>
     <t>KUTAWARINGIN</t>
   </si>
   <si>
     <t>CANGKUANG</t>
   </si>
   <si>
-    <t xml:space="preserve"> 32. 04. 44</t>
-  </si>
-  <si>
-    <t>Kode_kecamatan</t>
-  </si>
-  <si>
     <t>kecamatan</t>
   </si>
   <si>
     <t>Keterangan :</t>
   </si>
   <si>
-    <t xml:space="preserve"> isi data ibu rumah tangga sesuai dengan data yang anda miliki</t>
+    <t>perempuan_bekerja</t>
+  </si>
+  <si>
+    <t>pernikahan_dinni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isi data faktor kekerasan sesuai dengan data yang anda miliki</t>
+  </si>
+  <si>
+    <t>CIMAUNG</t>
+  </si>
+  <si>
+    <t>PANGALENGAN</t>
+  </si>
+  <si>
+    <t>CIKANCUNG</t>
+  </si>
+  <si>
+    <t>ARJASARI</t>
   </si>
 </sst>
 </file>
@@ -221,17 +149,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,18 +228,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,351 +554,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6999D33E-6BBE-443E-8B9B-4AC4D72377EA}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7">
+        <v>3323</v>
       </c>
       <c r="D2" s="7">
-        <v>23626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>12093</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3460</v>
       </c>
       <c r="D3" s="7">
-        <v>12093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>23645</v>
+      </c>
+      <c r="E3" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2944</v>
       </c>
       <c r="D4" s="7">
-        <v>23645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+        <v>22984</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6106</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39688</v>
+      </c>
+      <c r="E5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>20</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3030</v>
+      </c>
+      <c r="D6" s="7">
+        <v>17794</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2138</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29017</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7">
-        <v>17794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7">
-        <v>29017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="7">
-        <v>22067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>31</v>
+      <c r="C8" s="7">
+        <v>3353</v>
       </c>
       <c r="D8" s="7">
-        <v>33472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+        <v>22657</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>17</v>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7921</v>
       </c>
       <c r="D9" s="7">
         <v>26406</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>5511</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20034</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3937</v>
+      </c>
+      <c r="D11" s="7">
+        <v>25586</v>
+      </c>
+      <c r="E11" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3557</v>
+      </c>
+      <c r="D12" s="7">
+        <v>19058</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5085</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19123</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>6525</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29344</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5124</v>
+      </c>
+      <c r="D15" s="7">
+        <v>28972</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7">
-        <v>14433</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7">
-        <v>39080</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="7">
-        <v>20034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>41820</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>19058</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>10</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7">
-        <v>19123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>7</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
+      <c r="C16" s="7">
+        <v>2313</v>
       </c>
       <c r="D16" s="7">
-        <v>29344</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>26</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>27550</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8285</v>
       </c>
       <c r="D17" s="7">
-        <v>28972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
+        <v>32399</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8096</v>
       </c>
       <c r="D18" s="7">
-        <v>27550</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>6</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>22028</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7199</v>
       </c>
       <c r="D19" s="7">
-        <v>32399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>8</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>22307</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6779</v>
       </c>
       <c r="D20" s="7">
-        <v>22028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="7">
-        <v>22307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7">
-        <v>35246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7">
         <v>24785</v>
       </c>
+      <c r="E20" s="7">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="QZgnInBsffC7NctbHt6irPIq9nqkCRlB6m0/ORGUlD6F+vrN6MABQs36Fpq1IctcTQSUVKcduvh+53+kfNN+yQ==" saltValue="eWHSTviEY0DrhVP2opLcaA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1eeJ+KdymUaidr/FSfIqANdbvJv+GLdB0QnMRqiPez34IIsFomrwDUFlqsXQKxqSkp/+d++oFT1hG9C7Gfp4fg==" saltValue="TLujRUpCiKZInGMvIYYUnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/template/data_input.xlsx
+++ b/public/template/data_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7.2\htdocs\SIG_KTP\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A420D52-935F-407B-BF56-F5507380CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70678446-4402-472A-BB6F-67E7B083B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E3FF2CEC-B335-42B4-A3E0-6EA07740F475}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>id_kecamatan</t>
   </si>
@@ -90,9 +90,6 @@
     <t>pernikahan_dinni</t>
   </si>
   <si>
-    <t xml:space="preserve"> isi data faktor kekerasan sesuai dengan data yang anda miliki</t>
-  </si>
-  <si>
     <t>CIMAUNG</t>
   </si>
   <si>
@@ -103,13 +100,19 @@
   </si>
   <si>
     <t>ARJASARI</t>
+  </si>
+  <si>
+    <t>kasus_kekerasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isi data sesuai dengan data yang anda miliki</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -217,7 +227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -236,6 +246,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -554,370 +568,431 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6999D33E-6BBE-443E-8B9B-4AC4D72377EA}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
         <v>3323</v>
       </c>
-      <c r="D2" s="7">
+      <c r="E2" s="7">
         <v>12093</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
         <v>3460</v>
       </c>
-      <c r="D3" s="7">
+      <c r="E3" s="7">
         <v>23645</v>
       </c>
-      <c r="E3" s="7">
+      <c r="F3" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>2944</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <v>22984</v>
       </c>
-      <c r="E4" s="7">
+      <c r="F4" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="7">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
         <v>6106</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <v>39688</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
         <v>3030</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <v>17794</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
         <v>2138</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="7">
         <v>29017</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>3353</v>
       </c>
-      <c r="D8" s="7">
+      <c r="E8" s="7">
         <v>22657</v>
       </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
         <v>7921</v>
       </c>
-      <c r="D9" s="7">
+      <c r="E9" s="7">
         <v>26406</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>23</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
         <v>5511</v>
       </c>
-      <c r="D10" s="7">
+      <c r="E10" s="7">
         <v>20034</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
         <v>3937</v>
       </c>
-      <c r="D11" s="7">
+      <c r="E11" s="7">
         <v>25586</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
         <v>3557</v>
       </c>
-      <c r="D12" s="7">
+      <c r="E12" s="7">
         <v>19058</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
         <v>5085</v>
       </c>
-      <c r="D13" s="7">
+      <c r="E13" s="7">
         <v>19123</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>7</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
         <v>6525</v>
       </c>
-      <c r="D14" s="7">
+      <c r="E14" s="7">
         <v>29344</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>26</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
         <v>5124</v>
       </c>
-      <c r="D15" s="7">
+      <c r="E15" s="7">
         <v>28972</v>
       </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>31</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7">
         <v>2313</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E16" s="7">
         <v>27550</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
         <v>8285</v>
       </c>
-      <c r="D17" s="7">
+      <c r="E17" s="7">
         <v>32399</v>
       </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>8</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
         <v>8096</v>
       </c>
-      <c r="D18" s="7">
+      <c r="E18" s="7">
         <v>22028</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
         <v>7199</v>
       </c>
-      <c r="D19" s="7">
+      <c r="E19" s="7">
         <v>22307</v>
       </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7">
         <v>6779</v>
       </c>
-      <c r="D20" s="7">
+      <c r="E20" s="7">
         <v>24785</v>
       </c>
-      <c r="E20" s="7">
+      <c r="F20" s="7">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1eeJ+KdymUaidr/FSfIqANdbvJv+GLdB0QnMRqiPez34IIsFomrwDUFlqsXQKxqSkp/+d++oFT1hG9C7Gfp4fg==" saltValue="TLujRUpCiKZInGMvIYYUnA==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8CahVezhphBY3jTU1pPYwcyOUWyVrJ2JPOpmEzwM/hsKnDGu6mlbAx4fqx3z8Cbzw1e+eE0LK/CC6Yn04qSp4w==" saltValue="sEHm1QAjECvjbICVjDHxWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
